--- a/mergedFile.xlsx
+++ b/mergedFile.xlsx
@@ -14,24 +14,198 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>Heading 1</t>
-  </si>
-  <si>
-    <t>Heading 2</t>
-  </si>
-  <si>
-    <t>Heading 3</t>
-  </si>
-  <si>
-    <t>Heading 4</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="61">
+  <si>
+    <t>Incident</t>
+  </si>
+  <si>
+    <t>Annotation</t>
+  </si>
+  <si>
+    <t>Application</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>JobName</t>
+  </si>
+  <si>
+    <t>MessageAlert</t>
+  </si>
+  <si>
+    <t>INC0027</t>
+  </si>
+  <si>
+    <t>INC0028</t>
+  </si>
+  <si>
+    <t>INC0029</t>
+  </si>
+  <si>
+    <t>INC0030</t>
+  </si>
+  <si>
+    <t>INC0031</t>
+  </si>
+  <si>
+    <t>INC0032</t>
+  </si>
+  <si>
+    <t>INC0033</t>
+  </si>
+  <si>
+    <t>INC0034</t>
+  </si>
+  <si>
+    <t>INC0035</t>
+  </si>
+  <si>
+    <t>INC0036</t>
+  </si>
+  <si>
+    <t>INC0037</t>
+  </si>
+  <si>
+    <t>INC0038</t>
+  </si>
+  <si>
+    <t>INC0039</t>
+  </si>
+  <si>
+    <t>INC0014</t>
+  </si>
+  <si>
+    <t>INC0015</t>
+  </si>
+  <si>
+    <t>INC0016</t>
+  </si>
+  <si>
+    <t>INC0017</t>
+  </si>
+  <si>
+    <t>INC0018</t>
+  </si>
+  <si>
+    <t>INC0019</t>
+  </si>
+  <si>
+    <t>INC0020</t>
+  </si>
+  <si>
+    <t>INC0021</t>
+  </si>
+  <si>
+    <t>INC0022</t>
+  </si>
+  <si>
+    <t>INC0023</t>
+  </si>
+  <si>
+    <t>INC0024</t>
+  </si>
+  <si>
+    <t>INC0025</t>
+  </si>
+  <si>
+    <t>INC0026</t>
+  </si>
+  <si>
+    <t>INC0001</t>
+  </si>
+  <si>
+    <t>INC0002</t>
+  </si>
+  <si>
+    <t>INC0003</t>
+  </si>
+  <si>
+    <t>INC0004</t>
+  </si>
+  <si>
+    <t>INC0005</t>
+  </si>
+  <si>
+    <t>INC0006</t>
+  </si>
+  <si>
+    <t>INC0007</t>
+  </si>
+  <si>
+    <t>INC0008</t>
+  </si>
+  <si>
+    <t>INC0009</t>
+  </si>
+  <si>
+    <t>INC0010</t>
+  </si>
+  <si>
+    <t>INC0011</t>
+  </si>
+  <si>
+    <t>INC0012</t>
+  </si>
+  <si>
+    <t>INC0013</t>
+  </si>
+  <si>
+    <t>OMR</t>
+  </si>
+  <si>
+    <t>DVP</t>
+  </si>
+  <si>
+    <t>STARS</t>
+  </si>
+  <si>
+    <t>CRM</t>
+  </si>
+  <si>
+    <t>CMT</t>
+  </si>
+  <si>
+    <t>QRM</t>
+  </si>
+  <si>
+    <t>app-lrs-200-setup_launch</t>
+  </si>
+  <si>
+    <t>app-system-upload</t>
+  </si>
+  <si>
+    <t>app-random_error</t>
+  </si>
+  <si>
+    <t>app-system-override</t>
+  </si>
+  <si>
+    <t>app-upload_new_documents</t>
+  </si>
+  <si>
+    <t>AUTOSYS ALARM: JOB_FAILURE, JOB: app-lrs-200-setup_launch</t>
+  </si>
+  <si>
+    <t>AUTOSYS ALARM: MAX_RUNTIME, JOB: app-system-upload</t>
+  </si>
+  <si>
+    <t>AUTOSYS ALARM: WATCHFAILURE, JOB: app-random_error</t>
+  </si>
+  <si>
+    <t>AUTOSYS ALARM: JOB_FAILURE, JOB: app-system-override</t>
+  </si>
+  <si>
+    <t>AUTOSYS ALARM: JOB_FAILURE, JOB: app-ipload_new_documents</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -84,11 +258,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -383,13 +558,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -402,158 +577,908 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2">
-        <v>3</v>
-      </c>
-      <c r="E2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="2">
+        <v>43591</v>
+      </c>
+      <c r="F2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>4</v>
-      </c>
-      <c r="D3">
-        <v>6</v>
-      </c>
-      <c r="E3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="2">
+        <v>43592</v>
+      </c>
+      <c r="F3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>6</v>
-      </c>
-      <c r="D4">
-        <v>9</v>
-      </c>
-      <c r="E4">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="2">
+        <v>43593</v>
+      </c>
+      <c r="F4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
-      <c r="E5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="2">
+        <v>43594</v>
+      </c>
+      <c r="F5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6">
-        <v>4</v>
-      </c>
-      <c r="D6">
-        <v>6</v>
-      </c>
-      <c r="E6">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="2">
+        <v>43595</v>
+      </c>
+      <c r="F6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="C7">
-        <v>6</v>
-      </c>
-      <c r="D7">
-        <v>9</v>
-      </c>
-      <c r="E7">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43596</v>
+      </c>
+      <c r="F7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="D8">
-        <v>3</v>
-      </c>
-      <c r="E8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="2">
+        <v>43597</v>
+      </c>
+      <c r="F8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9">
-        <v>4</v>
-      </c>
-      <c r="D9">
-        <v>6</v>
-      </c>
-      <c r="E9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="2">
+        <v>43598</v>
+      </c>
+      <c r="F9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>3</v>
-      </c>
-      <c r="C10">
-        <v>6</v>
-      </c>
-      <c r="D10">
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="2">
+        <v>43599</v>
+      </c>
+      <c r="F10" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="E10">
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="2">
+        <v>43600</v>
+      </c>
+      <c r="F11" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="2">
+        <v>43601</v>
+      </c>
+      <c r="F12" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="2">
+        <v>43602</v>
+      </c>
+      <c r="F13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
         <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="2">
+        <v>43603</v>
+      </c>
+      <c r="F14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="2">
+        <v>43608</v>
+      </c>
+      <c r="F15" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="2">
+        <v>43609</v>
+      </c>
+      <c r="F16" t="s">
+        <v>51</v>
+      </c>
+      <c r="G16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="2">
+        <v>43610</v>
+      </c>
+      <c r="F17" t="s">
+        <v>52</v>
+      </c>
+      <c r="G17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" s="2">
+        <v>43611</v>
+      </c>
+      <c r="F18" t="s">
+        <v>53</v>
+      </c>
+      <c r="G18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="2">
+        <v>43612</v>
+      </c>
+      <c r="F19" t="s">
+        <v>53</v>
+      </c>
+      <c r="G19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="2">
+        <v>43613</v>
+      </c>
+      <c r="F20" t="s">
+        <v>53</v>
+      </c>
+      <c r="G20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" s="2">
+        <v>43614</v>
+      </c>
+      <c r="F21" t="s">
+        <v>51</v>
+      </c>
+      <c r="G21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22" s="2">
+        <v>43615</v>
+      </c>
+      <c r="F22" t="s">
+        <v>54</v>
+      </c>
+      <c r="G22" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" s="2">
+        <v>43616</v>
+      </c>
+      <c r="F23" t="s">
+        <v>53</v>
+      </c>
+      <c r="G23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" t="s">
+        <v>49</v>
+      </c>
+      <c r="E24" s="2">
+        <v>43617</v>
+      </c>
+      <c r="F24" t="s">
+        <v>52</v>
+      </c>
+      <c r="G24" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" t="s">
+        <v>45</v>
+      </c>
+      <c r="E25" s="2">
+        <v>43618</v>
+      </c>
+      <c r="F25" t="s">
+        <v>53</v>
+      </c>
+      <c r="G25" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" t="s">
+        <v>45</v>
+      </c>
+      <c r="E26" s="2">
+        <v>43619</v>
+      </c>
+      <c r="F26" t="s">
+        <v>51</v>
+      </c>
+      <c r="G26" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" t="s">
+        <v>48</v>
+      </c>
+      <c r="E27" s="2">
+        <v>43620</v>
+      </c>
+      <c r="F27" t="s">
+        <v>51</v>
+      </c>
+      <c r="G27" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" t="s">
+        <v>48</v>
+      </c>
+      <c r="E28" s="2">
+        <v>43619</v>
+      </c>
+      <c r="F28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" t="s">
+        <v>46</v>
+      </c>
+      <c r="E29" s="2">
+        <v>43620</v>
+      </c>
+      <c r="F29" t="s">
+        <v>51</v>
+      </c>
+      <c r="G29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" t="s">
+        <v>34</v>
+      </c>
+      <c r="D30" t="s">
+        <v>45</v>
+      </c>
+      <c r="E30" s="2">
+        <v>43621</v>
+      </c>
+      <c r="F30" t="s">
+        <v>52</v>
+      </c>
+      <c r="G30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D31" t="s">
+        <v>47</v>
+      </c>
+      <c r="E31" s="2">
+        <v>43622</v>
+      </c>
+      <c r="F31" t="s">
+        <v>53</v>
+      </c>
+      <c r="G31" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" t="s">
+        <v>36</v>
+      </c>
+      <c r="D32" t="s">
+        <v>46</v>
+      </c>
+      <c r="E32" s="2">
+        <v>43623</v>
+      </c>
+      <c r="F32" t="s">
+        <v>54</v>
+      </c>
+      <c r="G32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" t="s">
+        <v>37</v>
+      </c>
+      <c r="D33" t="s">
+        <v>45</v>
+      </c>
+      <c r="E33" s="2">
+        <v>43624</v>
+      </c>
+      <c r="F33" t="s">
+        <v>55</v>
+      </c>
+      <c r="G33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" t="s">
+        <v>38</v>
+      </c>
+      <c r="D34" t="s">
+        <v>50</v>
+      </c>
+      <c r="E34" s="2">
+        <v>43625</v>
+      </c>
+      <c r="F34" t="s">
+        <v>52</v>
+      </c>
+      <c r="G34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" t="s">
+        <v>39</v>
+      </c>
+      <c r="D35" t="s">
+        <v>46</v>
+      </c>
+      <c r="E35" s="2">
+        <v>43626</v>
+      </c>
+      <c r="F35" t="s">
+        <v>54</v>
+      </c>
+      <c r="G35" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" t="s">
+        <v>40</v>
+      </c>
+      <c r="D36" t="s">
+        <v>45</v>
+      </c>
+      <c r="E36" s="2">
+        <v>43627</v>
+      </c>
+      <c r="F36" t="s">
+        <v>53</v>
+      </c>
+      <c r="G36" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37" t="s">
+        <v>41</v>
+      </c>
+      <c r="D37" t="s">
+        <v>49</v>
+      </c>
+      <c r="E37" s="2">
+        <v>43628</v>
+      </c>
+      <c r="F37" t="s">
+        <v>52</v>
+      </c>
+      <c r="G37" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" t="s">
+        <v>42</v>
+      </c>
+      <c r="D38" t="s">
+        <v>46</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43629</v>
+      </c>
+      <c r="F38" t="s">
+        <v>51</v>
+      </c>
+      <c r="G38" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39" t="s">
+        <v>43</v>
+      </c>
+      <c r="D39" t="s">
+        <v>45</v>
+      </c>
+      <c r="E39" s="2">
+        <v>43630</v>
+      </c>
+      <c r="F39" t="s">
+        <v>51</v>
+      </c>
+      <c r="G39" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" t="s">
+        <v>44</v>
+      </c>
+      <c r="D40" t="s">
+        <v>48</v>
+      </c>
+      <c r="E40" s="2">
+        <v>43631</v>
+      </c>
+      <c r="F40" t="s">
+        <v>51</v>
+      </c>
+      <c r="G40" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
